--- a/Pooja/Remark.xlsx
+++ b/Pooja/Remark.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/750f923d45d01bdb/Documents/Aventisia/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC104888491A68745BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F4FCFAB-E772-460E-A2AE-C68A970767A0}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="11_F25DC773A252ABDACC104888491A68745BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CFB0512-1C51-45A0-90C0-BF5CCBC6B32B}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="106">
   <si>
     <t>Action Name</t>
   </si>
@@ -127,6 +126,225 @@
   </si>
   <si>
     <t>data-transformation &gt; text &gt;convert-datetime-to-text</t>
+  </si>
+  <si>
+    <t>use-the-windows-ocr-engine</t>
+  </si>
+  <si>
+    <t>App Integrations &gt; OCR &gt;use-the-windows-ocr-engine</t>
+  </si>
+  <si>
+    <t>wait-for-text-on-screen-ocr</t>
+  </si>
+  <si>
+    <t>App Integrations &gt; OCR &gt;wait-for-text-on-screen-ocr</t>
+  </si>
+  <si>
+    <t>extract-text-with-ocr</t>
+  </si>
+  <si>
+    <t>App Integrations &gt; OCR &gt;extract-text-with-ocr</t>
+  </si>
+  <si>
+    <t>1. Error opening action</t>
+  </si>
+  <si>
+    <t>download-file(s)-from-ftp</t>
+  </si>
+  <si>
+    <t>App Integrations &gt; FTP &gt;download-file(s)-from-ftp</t>
+  </si>
+  <si>
+    <t>download-folder(s)-from-ftp</t>
+  </si>
+  <si>
+    <t>App Integrations &gt; FTP &gt;download-folder(s)-from-ftp</t>
+  </si>
+  <si>
+    <t>upload-files(s)-from-ftp</t>
+  </si>
+  <si>
+    <t>App Integrations &gt; FTP &gt;upload-files(s)-from-ftp</t>
+  </si>
+  <si>
+    <t>upload-folder(s)-from-ftp</t>
+  </si>
+  <si>
+    <t>App Integrations &gt; FTP &gt;upload-folder(s)-from-ftp</t>
+  </si>
+  <si>
+    <t>create-ftp-directory</t>
+  </si>
+  <si>
+    <t>App Integrations &gt; FTP &gt;create-ftp-directory</t>
+  </si>
+  <si>
+    <t>clear-clipboard-content</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; clipboard &gt;clear-clipboard-content</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; message-boxes &gt;display-custom-form</t>
+  </si>
+  <si>
+    <t>display-custom-form</t>
+  </si>
+  <si>
+    <t>Resize columns/rows in Excel worksheet</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; excel &gt;Resize columns/rows in Excel worksheet</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; excel &gt;Find-and-replace-cells-in-Excel-worksheet</t>
+  </si>
+  <si>
+    <t>Find-and-replace-cells-in-Excel-worksheet</t>
+  </si>
+  <si>
+    <t>lookup-range-in-excel-worksheet</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; excel &gt;lookup-range-in-excel-worksheet</t>
+  </si>
+  <si>
+    <t>set-check-box-state-on-web-page</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; browser-automation&gt;set-check-box-state-on-web-page</t>
+  </si>
+  <si>
+    <t>set-drop-down-list-value-on-web-page</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; browser-automation&gt;set-drop-down-list-value-on-web-page</t>
+  </si>
+  <si>
+    <t>launch-new-microsoft-edge</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; browser-automation&gt;launch-new-microsoft-edge</t>
+  </si>
+  <si>
+    <t>lock-workstation</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; work-station&gt;lock-workstation</t>
+  </si>
+  <si>
+    <t>empty-recycle-bin</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; work-station&gt;empty-recycle-bin</t>
+  </si>
+  <si>
+    <t>get-special-folder</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; folder&gt;get-special-folder</t>
+  </si>
+  <si>
+    <t>block-input</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; mouse-and-keyboard&gt;block-input</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; mouse-and-keyboard&gt;move-mouse</t>
+  </si>
+  <si>
+    <t>move-mouse</t>
+  </si>
+  <si>
+    <t>move-mouse-to-text-on-screen(ocr)</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; mouse-and-keyboard&gt;move-mouse-to-text-on-screen(ocr)</t>
+  </si>
+  <si>
+    <t>press-release-key</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; mouse-and-keyboard&gt;press-release-key</t>
+  </si>
+  <si>
+    <t>send-email-through-outlook</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; outlook&gt;send-email-through-outlook</t>
+  </si>
+  <si>
+    <t>close-outlook</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; outlook&gt;close-outlook</t>
+  </si>
+  <si>
+    <t>execute-xpath-expression</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; xml&gt;execute-xpath-expression</t>
+  </si>
+  <si>
+    <t>remove-xml-element-attribute</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; xml&gt;remove-xml-element-attribute</t>
+  </si>
+  <si>
+    <t>get-xml-element-value</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; xml&gt;get-xml-element-value</t>
+  </si>
+  <si>
+    <t>set-xml-element-value</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; xml&gt;set-xml-element-value</t>
+  </si>
+  <si>
+    <t>insert-xml-element</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; xml&gt;sinsert-xml-element</t>
+  </si>
+  <si>
+    <t>set-drop-down-list-value-in-window</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; ui-automation&gt;set-drop-down-list-value-in-window</t>
+  </si>
+  <si>
+    <t>if-image</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; ui-automation&gt;if-image</t>
+  </si>
+  <si>
+    <t>wait-for-image</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; ui-automation&gt;wait-for-image</t>
+  </si>
+  <si>
+    <t>click-ui-element-in-window</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; ui-automation&gt;click-ui-element-in-window</t>
+  </si>
+  <si>
+    <t>drag-and-drop-ui-element-in-window</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; ui-automation&gt;drag-and-drop-ui-element-in-window</t>
+  </si>
+  <si>
+    <t>expand-collapse-tree-node-in-window</t>
+  </si>
+  <si>
+    <t>ui-interface &gt; ui-automation&gt;expand-collapse-tree-node-in-window</t>
   </si>
 </sst>
 </file>
@@ -170,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -193,6 +411,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -221,9 +442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1882140</xdr:colOff>
+      <xdr:colOff>1885950</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1704391</xdr:rowOff>
+      <xdr:rowOff>1694866</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -287,7 +508,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>4572372</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1973736</xdr:rowOff>
+      <xdr:rowOff>1968021</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -349,9 +570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3406140</xdr:colOff>
+      <xdr:colOff>3409950</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1534899</xdr:rowOff>
+      <xdr:rowOff>1544424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -413,9 +634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3322320</xdr:colOff>
+      <xdr:colOff>3329940</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>639161</xdr:rowOff>
+      <xdr:rowOff>631541</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -476,9 +697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4519024</xdr:colOff>
+      <xdr:colOff>4515214</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1889760</xdr:rowOff>
+      <xdr:rowOff>1885950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -540,9 +761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4564748</xdr:colOff>
+      <xdr:colOff>4559033</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>563920</xdr:rowOff>
+      <xdr:rowOff>558205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -604,9 +825,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4564743</xdr:colOff>
+      <xdr:colOff>4559028</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>655358</xdr:rowOff>
+      <xdr:rowOff>662978</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -668,9 +889,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4633330</xdr:colOff>
+      <xdr:colOff>4629520</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>510575</xdr:rowOff>
+      <xdr:rowOff>514385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -732,9 +953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4694288</xdr:colOff>
+      <xdr:colOff>4701908</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>624880</xdr:rowOff>
+      <xdr:rowOff>628690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -796,7 +1017,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4694288</xdr:colOff>
+      <xdr:colOff>4701908</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>609638</xdr:rowOff>
     </xdr:to>
@@ -918,9 +1139,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4694297</xdr:colOff>
+      <xdr:colOff>4701917</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>525817</xdr:rowOff>
+      <xdr:rowOff>520102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -982,9 +1203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4633328</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>472474</xdr:rowOff>
+      <xdr:colOff>4629518</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1046,9 +1267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4694294</xdr:colOff>
+      <xdr:colOff>4701914</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>487714</xdr:rowOff>
+      <xdr:rowOff>481999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1112,7 +1333,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>4610467</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>548678</xdr:rowOff>
+      <xdr:rowOff>552488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1165,6 +1386,2176 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>245345</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4229467" cy="343737"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1417E101-0E6E-47B9-AECF-28843309C36C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="16533095"/>
+          <a:ext cx="4229467" cy="343737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4838700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>628708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020827A9-FC27-33D9-9B57-D2D9840A8AAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="17602200"/>
+          <a:ext cx="4457700" cy="419158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4625340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2345056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D69F462-2401-6D6B-BEE3-713C2BD6B78E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="18564226"/>
+          <a:ext cx="4171950" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4930141</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>973513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73A7D08-EA66-A221-9371-9634D52E9413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="21545550"/>
+          <a:ext cx="4657726" cy="419158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>570501</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4657726" cy="402106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55C8A3C-0F22-4743-9697-5A65995C318F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="22735176"/>
+          <a:ext cx="4657726" cy="402106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>613805</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4657726" cy="315497"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D76B3A9-1414-4A49-9853-B995ED873815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="23959580"/>
+          <a:ext cx="4657726" cy="315497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>537222</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>347105</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3926182" cy="315497"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F9A697-20E4-4CA8-8B61-9CF5D63A4359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2404122" y="24845405"/>
+          <a:ext cx="3926182" cy="315497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>537222</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>362901</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3926182" cy="283904"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3837D6D7-9003-49CA-BBA5-489CE66DF0A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2404122" y="25889901"/>
+          <a:ext cx="3926182" cy="283904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>537222</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>367648</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3926182" cy="274410"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA9E2FC-9DCD-491F-8C3C-D0A02979251D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2404122" y="26923348"/>
+          <a:ext cx="3926182" cy="274410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3560860" cy="434413"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AC51EB-2017-4134-89EF-9BE2A4D2E106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="27346275"/>
+          <a:ext cx="3560860" cy="434413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>240030</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3105441" cy="550545"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C8F18E-71E7-4F90-98A7-2723258396B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="28338780"/>
+          <a:ext cx="3105441" cy="550545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>594070</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>240030</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3627684" cy="483870"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EC0B35-D346-4B3C-B037-225E22353ABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2518120" y="29291280"/>
+          <a:ext cx="3627684" cy="483870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3619500" cy="483870"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE87936-7712-483D-B76C-247DECECA24B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514601" y="30247590"/>
+          <a:ext cx="3619500" cy="483870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>340348</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3619500" cy="459751"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10479C64-2528-4F8C-8FEA-A8689858DA17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457451" y="31296598"/>
+          <a:ext cx="3619500" cy="459751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>216789</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3619500" cy="287769"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8BE9E7E-F30A-4128-B87D-37B149C71AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381251" y="32125539"/>
+          <a:ext cx="3619500" cy="287769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564486</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>216789</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3357303" cy="287769"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308A76D7-3139-462E-8C98-54E80AED88B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2431386" y="32868489"/>
+          <a:ext cx="3357303" cy="287769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>557958</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>178689</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3556842" cy="402336"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB08F8DB-7949-4403-8B15-FEF623966F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2424858" y="33544764"/>
+          <a:ext cx="3556842" cy="402336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>557958</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>221353</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3556842" cy="317008"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16338871-3B17-4AAD-83F4-92E5BA78A24F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2424858" y="34320853"/>
+          <a:ext cx="3556842" cy="317008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>557958</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3556842" cy="438149"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047A4209-C830-46D0-A46F-CE1C648FE5C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2424858" y="35004375"/>
+          <a:ext cx="3556842" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3524250" cy="1962150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E15161-D5D5-4D2E-AFA7-AB5917DDAEBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="36175950"/>
+          <a:ext cx="3524250" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3019425" cy="2152650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45950951-D857-4E20-A3C1-4CC9B65C0677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="38719125"/>
+          <a:ext cx="3019425" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4810125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>571560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F7A3D8-D5AE-95C3-D51E-6A2067F2518B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="41214675"/>
+          <a:ext cx="4648200" cy="428685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>150079</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4648200" cy="414277"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A377EA-5643-4CED-8EFC-89B2F7E9F418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="42060079"/>
+          <a:ext cx="4648200" cy="414277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>153495</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4648200" cy="407444"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EF1CEE-C5C4-4DE4-8595-89F6CD276001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="42806445"/>
+          <a:ext cx="4648200" cy="407444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180062</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4648200" cy="354309"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E632C0E6-6641-445A-B5D7-30FC6B7DD4E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="43490237"/>
+          <a:ext cx="4648200" cy="354309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488696</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>151487</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3994658" cy="354309"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC85F4DA-0DAF-4DE5-86E8-EDC15DBBC4A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2355596" y="44118887"/>
+          <a:ext cx="3994658" cy="354309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564064</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>151487</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3843921" cy="354309"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB6A227-94EA-4A2E-818A-4CE8962DBE5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430964" y="44776112"/>
+          <a:ext cx="3843921" cy="354309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564064</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157508</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3843921" cy="342266"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D468FC-982A-419A-AEDF-A09404151BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430964" y="45496508"/>
+          <a:ext cx="3843921" cy="342266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564064</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>159752</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3843921" cy="337778"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA04633-8832-453A-9121-3927FDEF6F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430964" y="46327427"/>
+          <a:ext cx="3843921" cy="337778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564064</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>179757</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3843921" cy="297768"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75443D8-3E8C-4BF2-871D-818229C58444}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430964" y="47138007"/>
+          <a:ext cx="3843921" cy="297768"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564064</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>159752</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3843921" cy="337778"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9A8AE2-C5CA-4CC3-BD5F-C1A1437314F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430964" y="46327427"/>
+          <a:ext cx="3843921" cy="337778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564064</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>169325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3843921" cy="318631"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BD7F18-9623-4F86-8E69-4657F9DCE129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430964" y="49032575"/>
+          <a:ext cx="3843921" cy="318631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564064</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>187764</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3843921" cy="281753"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7DC6A8-50EA-4629-BAE2-E74B1308ACC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430964" y="49813014"/>
+          <a:ext cx="3843921" cy="281753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564064</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>174747</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3843921" cy="307787"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40EC741-3BCA-481A-BD91-7791A3D3AB03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430964" y="50504847"/>
+          <a:ext cx="3843921" cy="307787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564064</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>172715</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3843921" cy="311852"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CD6439-6582-4550-B3D7-B943487A948B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430964" y="51083840"/>
+          <a:ext cx="3843921" cy="311852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>612006</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>159752</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3748037" cy="337778"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99AC4532-BBF5-4C0A-B6B2-35A944988CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2478906" y="51747152"/>
+          <a:ext cx="3748037" cy="337778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>564064</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200958</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3843921" cy="255365"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04560233-35CD-4181-9DFE-55A898DCD95E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430964" y="52378908"/>
+          <a:ext cx="3843921" cy="255365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1431,22 +3822,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +3854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1478,7 +3869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="181.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="181.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +3884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="139.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +3899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1523,7 +3914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="170.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="170.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +3929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1553,7 +3944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +3958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1581,7 +3972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1595,7 +3986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1609,7 +4000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +4014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1637,7 +4028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1651,7 +4042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1665,7 +4056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1678,6 +4069,602 @@
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="17" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pooja/Remark.xlsx
+++ b/Pooja/Remark.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/750f923d45d01bdb/Documents/Aventisia/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/750f923d45d01bdb/Desktop/public-docs/Pooja/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="174" documentId="11_F25DC773A252ABDACC104888491A68745BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CFB0512-1C51-45A0-90C0-BF5CCBC6B32B}"/>
@@ -3824,8 +3824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pooja/Remark.xlsx
+++ b/Pooja/Remark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/750f923d45d01bdb/Desktop/public-docs/Pooja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="11_F25DC773A252ABDACC104888491A68745BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CFB0512-1C51-45A0-90C0-BF5CCBC6B32B}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="11_F25DC773A252ABDACC104888491A68745BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C43F49A3-1BE1-4912-AB62-62409B3D27A1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="111">
   <si>
     <t>Action Name</t>
   </si>
@@ -113,9 +113,6 @@
     <t>data-transformation &gt;text&gt;use-the-recognize-entity-in-text-actions</t>
   </si>
   <si>
-    <t>use-the-recognize-entity-in-text-actions</t>
-  </si>
-  <si>
     <t>convert-text-to-number</t>
   </si>
   <si>
@@ -345,6 +342,24 @@
   </si>
   <si>
     <t>ui-interface &gt; ui-automation&gt;expand-collapse-tree-node-in-window</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>recognisze-entities-in-text</t>
+  </si>
+  <si>
+    <t>not found</t>
+  </si>
+  <si>
+    <t>Setting button is not available</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Not Found</t>
   </si>
 </sst>
 </file>
@@ -368,12 +383,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -388,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -413,6 +434,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3822,10 +3856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3835,9 +3869,10 @@
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3854,7 +3889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="142.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3869,7 +3904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="181.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="181.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3884,7 +3919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="139.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="139.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3899,7 +3934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3914,7 +3949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="170.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="170.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3928,8 +3963,11 @@
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3943,8 +3981,11 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3957,8 +3998,11 @@
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -3971,8 +4015,11 @@
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3985,8 +4032,11 @@
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -3999,8 +4049,11 @@
       <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -4013,8 +4066,11 @@
       <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -4027,10 +4083,13 @@
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>27</v>
@@ -4041,13 +4100,16 @@
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
@@ -4055,13 +4117,16 @@
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
@@ -4069,13 +4134,16 @@
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
@@ -4083,13 +4151,16 @@
       <c r="E17" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
@@ -4097,27 +4168,33 @@
       <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
@@ -4126,12 +4203,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>14</v>
@@ -4139,13 +4216,16 @@
       <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>14</v>
@@ -4153,13 +4233,16 @@
       <c r="E22" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>14</v>
@@ -4167,13 +4250,16 @@
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>14</v>
@@ -4181,27 +4267,33 @@
       <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="10" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>14</v>
@@ -4209,13 +4301,16 @@
       <c r="E26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>14</v>
@@ -4223,13 +4318,16 @@
       <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>14</v>
@@ -4237,13 +4335,16 @@
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>14</v>
@@ -4251,13 +4352,16 @@
       <c r="E29" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>14</v>
@@ -4265,13 +4369,16 @@
       <c r="E30" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>14</v>
@@ -4279,13 +4386,16 @@
       <c r="E31" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>14</v>
@@ -4293,41 +4403,50 @@
       <c r="E32" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="F32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="10" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="C34" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="E34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>14</v>
@@ -4335,13 +4454,16 @@
       <c r="E35" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -4349,13 +4471,16 @@
       <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -4363,13 +4488,16 @@
       <c r="E37" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>14</v>
@@ -4377,13 +4505,16 @@
       <c r="E38" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>14</v>
@@ -4391,13 +4522,16 @@
       <c r="E39" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>14</v>
@@ -4405,13 +4539,16 @@
       <c r="E40" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>14</v>
@@ -4420,12 +4557,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>14</v>
@@ -4434,12 +4571,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>14</v>
@@ -4448,12 +4585,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>14</v>
@@ -4462,12 +4599,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>14</v>
@@ -4476,12 +4613,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>14</v>
@@ -4490,12 +4627,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>14</v>
@@ -4504,12 +4641,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>14</v>
@@ -4520,10 +4657,10 @@
     </row>
     <row r="49" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>14</v>
@@ -4534,10 +4671,10 @@
     </row>
     <row r="50" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>14</v>
@@ -4548,10 +4685,10 @@
     </row>
     <row r="51" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>14</v>
@@ -4562,10 +4699,10 @@
     </row>
     <row r="52" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>14</v>
@@ -4576,10 +4713,10 @@
     </row>
     <row r="53" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>14</v>
